--- a/Tools/excel2json/excel/UnitDefine.xlsx
+++ b/Tools/excel2json/excel/UnitDefine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Things\Code\CSharp\MMO-SERVER\excel2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Things\Code\CSharp\MMO-SERVER\Tools\excel2json\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494DC4A-1A01-4EF3-9151-39D88FAFAAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D58196-E34A-4C99-A065-09F59C40B923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -989,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4">
         <v>500</v>
@@ -1070,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
         <v>300</v>
@@ -1151,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4">
         <v>400</v>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4">
         <v>400</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <v>300</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4">
         <v>400</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4">
         <v>500</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4">
         <v>800</v>
